--- a/biology/Histoire de la zoologie et de la botanique/Louis_Lartet/Louis_Lartet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Lartet/Louis_Lartet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Lartet, né le 18 décembre 1840 à Castelnau-Magnoac (Hautes-Pyrénées) et mort en août 1899 à Seissan (Gers), est un préhistorien français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au contact de son père Édouard, préhistorien renommé, le jeune Louis développe très tôt le goût des sciences naturelles. Sa famille ayant quitté le Gers pour s’installer à Paris, il poursuit ses études dans la capitale, puis devient en 1862 assistant au Muséum national d'histoire naturelle.  Dans les années 1860, il réalise diverses fouilles en Espagne. 
 Ses premières publications, avec Édouard de Verneuil, portent sur la Meseta, un haut-plateau situé au centre de la péninsule Ibérique. 
-De 1864 à 1865, il est chargé par le duc Honoré Théodoric Paul Joseph d'Albert de Luynes d'une mission géologique en Palestine[1]. La série d’articles et d'analyses qui en résultent donne lieu en 1869 à une thèse de géologie.
+De 1864 à 1865, il est chargé par le duc Honoré Théodoric Paul Joseph d'Albert de Luynes d'une mission géologique en Palestine. La série d’articles et d'analyses qui en résultent donne lieu en 1869 à une thèse de géologie.
 En 1868, il va fouiller le site préhistorique de Cro Magnon, qui vient d'être découvert en Dordogne, à l'occasion de travaux routiers, et dans lequel se trouvent associés, pour la première fois, mobiliers et restes humains. Il est l'inventeur du squelette  de l'Homme de Cro-Magnon, représentant fossile de l'Homo sapiens actuel, dans le site de l'abri de Cro-Magnon, aux Eyzies-de-Tayac.
 En 1869, il quitte son emploi d'assistant au Muséum national d'histoire naturelle pour devenir préparateur à la Sorbonne.
 En 1870, la guerre ayant ramené la famille dans le Gers, Louis débute alors une carrière universitaire à Toulouse. Son père meurt en 1871.
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Verneuil H. de &amp; Lartet L. (1863).- "Sur le calcaire à Lychnus des environs de Segura (Aragon)". Bulletin de la Société Géologique de France, (2), XX, p. 684 - 698, pl. X.
 Verneuil H. de &amp; Lartet L. (1863).- "Sur des silex taillés recueillis dans le diluvium des environs de Madrid et description de l'un d'eux." Bull. Soc. Géol. France, (2), XX, p. 698 - 702, pl. XI.
